--- a/data/variables for model.xlsx
+++ b/data/variables for model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>QB</t>
   </si>
@@ -50,9 +50,6 @@
     <t>opp rank v pass</t>
   </si>
   <si>
-    <t>opp overall def rank</t>
-  </si>
-  <si>
     <t>opp overall off rank</t>
   </si>
   <si>
@@ -135,6 +132,105 @@
   </si>
   <si>
     <t>Conditions:</t>
+  </si>
+  <si>
+    <t>fumbles</t>
+  </si>
+  <si>
+    <t>% of plays that are pass</t>
+  </si>
+  <si>
+    <t>* do sacks count as pass attempts?</t>
+  </si>
+  <si>
+    <t>qb fumbles</t>
+  </si>
+  <si>
+    <t>20+ yd pass attempts</t>
+  </si>
+  <si>
+    <t>yd/rush</t>
+  </si>
+  <si>
+    <t>rush td</t>
+  </si>
+  <si>
+    <t>opp d Ru/Yd G</t>
+  </si>
+  <si>
+    <t>opp d Pa/Yd G</t>
+  </si>
+  <si>
+    <t>opp d fant points</t>
+  </si>
+  <si>
+    <t>last wk QB pt/ opp d pts</t>
+  </si>
+  <si>
+    <t>opp d sacks</t>
+  </si>
+  <si>
+    <t>injuries, by line/2ndary</t>
+  </si>
+  <si>
+    <t>% of plays that are run</t>
+  </si>
+  <si>
+    <t>% snaps played</t>
+  </si>
+  <si>
+    <t>% of TDs that came on passing plays, v running plays</t>
+  </si>
+  <si>
+    <t>% of times the team throws the ball in the red zone, v run the ball</t>
+  </si>
+  <si>
+    <t>rec yds/team pass yds</t>
+  </si>
+  <si>
+    <t>rush yds/team rush yds</t>
+  </si>
+  <si>
+    <t>opp fum</t>
+  </si>
+  <si>
+    <t>opp int</t>
+  </si>
+  <si>
+    <t>opp Ru/Yd</t>
+  </si>
+  <si>
+    <t>opp Pa/Yd</t>
+  </si>
+  <si>
+    <t>fum</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Ru/Yd</t>
+  </si>
+  <si>
+    <t>Pa/Yd</t>
+  </si>
+  <si>
+    <t>points allowed</t>
+  </si>
+  <si>
+    <t>opp points scored</t>
+  </si>
+  <si>
+    <t>opp sacks allowed</t>
+  </si>
+  <si>
+    <t>sacks</t>
+  </si>
+  <si>
+    <t>punt + kick returns</t>
+  </si>
+  <si>
+    <t>for D: opponent's punk/kick returns allowed</t>
   </si>
 </sst>
 </file>
@@ -178,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,50 +331,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,10 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,61 +647,61 @@
     <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>33</v>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>36</v>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -660,225 +725,446 @@
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/variables for model.xlsx
+++ b/data/variables for model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>QB</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>for D: opponent's punk/kick returns allowed</t>
+  </si>
+  <si>
+    <t>historical salary of each player</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1166,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="landscape" r:id="rId1"/>

--- a/data/variables for model.xlsx
+++ b/data/variables for model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>QB</t>
   </si>
@@ -38,9 +38,6 @@
     <t>TE</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -104,30 +101,9 @@
     <t>rush tds</t>
   </si>
   <si>
-    <t>xpa</t>
-  </si>
-  <si>
-    <t>xpm</t>
-  </si>
-  <si>
-    <t>fga (&lt;50 yds)</t>
-  </si>
-  <si>
-    <t>fgm (&lt;50 yds)</t>
-  </si>
-  <si>
-    <t>fga (50 yds +)</t>
-  </si>
-  <si>
-    <t>fgm (50 yds +)</t>
-  </si>
-  <si>
     <t>Covariates for fantasy model</t>
   </si>
   <si>
-    <t>fantasy points</t>
-  </si>
-  <si>
     <t>In-game variables:</t>
   </si>
   <si>
@@ -155,15 +131,6 @@
     <t>rush td</t>
   </si>
   <si>
-    <t>opp d Ru/Yd G</t>
-  </si>
-  <si>
-    <t>opp d Pa/Yd G</t>
-  </si>
-  <si>
-    <t>opp d fant points</t>
-  </si>
-  <si>
     <t>last wk QB pt/ opp d pts</t>
   </si>
   <si>
@@ -197,12 +164,6 @@
     <t>opp int</t>
   </si>
   <si>
-    <t>opp Ru/Yd</t>
-  </si>
-  <si>
-    <t>opp Pa/Yd</t>
-  </si>
-  <si>
     <t>fum</t>
   </si>
   <si>
@@ -234,6 +195,24 @@
   </si>
   <si>
     <t>historical salary of each player</t>
+  </si>
+  <si>
+    <t>opp d RuYd allowed</t>
+  </si>
+  <si>
+    <t>opp d PaYd allowed</t>
+  </si>
+  <si>
+    <t>opp d fant points scored</t>
+  </si>
+  <si>
+    <t>opp RuYd</t>
+  </si>
+  <si>
+    <t>opp PaYd</t>
+  </si>
+  <si>
+    <t>qb_home_away</t>
   </si>
 </sst>
 </file>
@@ -637,30 +616,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -674,501 +653,444 @@
       <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
